--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26206"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rama\Personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rama\Personal\SukaSuka\blue-archive-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5584736A-EF33-4C2C-8E30-54D1F6CA7762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D076616B-72CF-4042-AF26-8AF1F6F49A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="7845" xr2:uid="{F0D66DEA-9783-4BB9-97FB-5DEA114F8193}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0D66DEA-9783-4BB9-97FB-5DEA114F8193}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 0" sheetId="2" r:id="rId1"/>
@@ -48,10 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="191">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="242">
   <si>
     <t>Airi</t>
   </si>
@@ -621,6 +618,214 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/02/04
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/11/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/03/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/12/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/10/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/06/08
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/06/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/06/30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/05/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/11/30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/04/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/01/30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/07/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/01/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/11/03
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/09/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/07/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/07/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/02/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/05/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/07/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/04/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/02/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/01/31
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/09/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/08/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/08/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/06/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/09/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/10/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/03/08
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/02/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/04/08
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/01/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/02/09
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/01/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/03/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/04/06
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/12/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/02/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/08/09
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/09/09
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/01/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/11/30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/08/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/05/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/05/13
+</t>
   </si>
 </sst>
 </file>
@@ -656,9 +861,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -753,6 +957,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8DE8CD9F-0E64-47D3-B824-AF288065097E}" name="Table_0" displayName="Table_0" ref="A1:O131" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:O131" xr:uid="{8DE8CD9F-0E64-47D3-B824-AF288065097E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O131">
+    <sortCondition ref="A1:A131"/>
+  </sortState>
   <tableColumns count="15">
     <tableColumn id="2" xr3:uid="{1E87617B-5B6F-42B3-9EB9-AC13286C4711}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{AEB5DF4D-9245-432F-BAE5-D0C98A05C5E9}" uniqueName="3" name="rarity" queryTableFieldId="3" dataDxfId="13"/>
@@ -1074,7 +1281,7 @@
   <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,6159 +1304,6159 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
         <v>171</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>173</v>
       </c>
-      <c r="D1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>174</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>175</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>177</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>178</v>
       </c>
-      <c r="J1" t="s">
-        <v>179</v>
-      </c>
       <c r="K1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" t="s">
         <v>181</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>182</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>183</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>184</v>
-      </c>
-      <c r="O1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
       <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
       <c r="L2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O2" s="1">
-        <v>44231</v>
+        <v>185</v>
+      </c>
+      <c r="O2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
       <c r="L3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O3" s="1">
-        <v>44231</v>
+        <v>187</v>
+      </c>
+      <c r="O3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4" s="1">
-        <v>44846</v>
+        <v>185</v>
+      </c>
+      <c r="O4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N5" t="s">
-        <v>189</v>
-      </c>
-      <c r="O5" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N6" t="s">
-        <v>190</v>
-      </c>
-      <c r="O6" s="1">
-        <v>44517</v>
+        <v>189</v>
+      </c>
+      <c r="O6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N7" t="s">
-        <v>190</v>
-      </c>
-      <c r="O7" s="1">
-        <v>44280</v>
+        <v>189</v>
+      </c>
+      <c r="O7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N8" t="s">
-        <v>188</v>
-      </c>
-      <c r="O8" s="1">
-        <v>44231</v>
+        <v>187</v>
+      </c>
+      <c r="O8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N9" t="s">
+        <v>189</v>
+      </c>
+      <c r="O9" t="s">
         <v>190</v>
-      </c>
-      <c r="O9" s="1">
-        <v>44559</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N10" t="s">
-        <v>189</v>
-      </c>
-      <c r="O10" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O11" t="s">
         <v>190</v>
-      </c>
-      <c r="O11" s="1">
-        <v>44481</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
         <v>7</v>
       </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>8</v>
-      </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N12" t="s">
-        <v>190</v>
-      </c>
-      <c r="O12" s="1">
-        <v>44720</v>
+        <v>189</v>
+      </c>
+      <c r="O12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N13" t="s">
-        <v>186</v>
-      </c>
-      <c r="O13" s="1">
-        <v>44231</v>
+        <v>185</v>
+      </c>
+      <c r="O13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N14" t="s">
-        <v>189</v>
-      </c>
-      <c r="O14" s="1">
-        <v>44734</v>
+        <v>188</v>
+      </c>
+      <c r="O14" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="2">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N15" t="s">
-        <v>190</v>
-      </c>
-      <c r="O15" s="1">
-        <v>44343</v>
+        <v>189</v>
+      </c>
+      <c r="O15" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
         <v>18</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
       <c r="H16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s">
-        <v>190</v>
-      </c>
-      <c r="O16" s="1">
-        <v>44377</v>
+        <v>189</v>
+      </c>
+      <c r="O16" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
       <c r="H17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
         <v>14</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>15</v>
       </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
       <c r="L17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s">
-        <v>188</v>
-      </c>
-      <c r="O17" s="1">
-        <v>44315</v>
+        <v>187</v>
+      </c>
+      <c r="O17" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="2">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
         <v>4</v>
       </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N18" t="s">
-        <v>188</v>
-      </c>
-      <c r="O18" s="1">
-        <v>44530</v>
+        <v>187</v>
+      </c>
+      <c r="O18" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="2">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1">
         <v>3</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N19" t="s">
-        <v>189</v>
-      </c>
-      <c r="O19" s="1">
-        <v>44591</v>
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
-      </c>
-      <c r="O20" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="2">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1">
         <v>3</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" t="s">
         <v>14</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>15</v>
       </c>
-      <c r="K21" t="s">
-        <v>16</v>
-      </c>
       <c r="L21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" t="s">
         <v>190</v>
-      </c>
-      <c r="O21" s="1">
-        <v>44530</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>51</v>
-      </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
-      </c>
-      <c r="O22" s="1">
-        <v>44231</v>
+        <v>185</v>
+      </c>
+      <c r="O22" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="2">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" t="s">
         <v>50</v>
       </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>51</v>
-      </c>
       <c r="K23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s">
+        <v>189</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
         <v>190</v>
-      </c>
-      <c r="N23" t="s">
-        <v>188</v>
-      </c>
-      <c r="O23" s="1">
-        <v>44767</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="2">
-        <v>3</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>54</v>
-      </c>
       <c r="K24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="s">
+        <v>188</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
         <v>190</v>
-      </c>
-      <c r="M24" t="s">
-        <v>189</v>
-      </c>
-      <c r="N24" t="s">
-        <v>188</v>
-      </c>
-      <c r="O24" s="1">
-        <v>44231</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L25" t="s">
+        <v>185</v>
+      </c>
+      <c r="M25" t="s">
+        <v>188</v>
+      </c>
+      <c r="N25" t="s">
         <v>186</v>
       </c>
-      <c r="M25" t="s">
-        <v>189</v>
-      </c>
-      <c r="N25" t="s">
-        <v>187</v>
-      </c>
-      <c r="O25" s="1">
-        <v>44587</v>
+      <c r="O25" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="2">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1">
         <v>3</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
         <v>4</v>
       </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" t="s">
         <v>7</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>8</v>
       </c>
-      <c r="K26" t="s">
-        <v>9</v>
-      </c>
       <c r="L26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N26" t="s">
-        <v>188</v>
-      </c>
-      <c r="O26" s="1">
-        <v>44231</v>
+        <v>187</v>
+      </c>
+      <c r="O26" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="2">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1">
         <v>3</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
         <v>7</v>
       </c>
-      <c r="I27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>8</v>
       </c>
-      <c r="K27" t="s">
-        <v>9</v>
-      </c>
       <c r="L27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N27" t="s">
+        <v>189</v>
+      </c>
+      <c r="O27" t="s">
         <v>190</v>
-      </c>
-      <c r="O27" s="1">
-        <v>44923</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="2">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1">
         <v>3</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
         <v>4</v>
       </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N28" t="s">
-        <v>186</v>
-      </c>
-      <c r="O28" s="1">
-        <v>44231</v>
+        <v>185</v>
+      </c>
+      <c r="O28" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="2">
+        <v>59</v>
+      </c>
+      <c r="B29" s="1">
         <v>3</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N29" t="s">
+        <v>189</v>
+      </c>
+      <c r="O29" t="s">
         <v>190</v>
-      </c>
-      <c r="O29" s="1">
-        <v>44909</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="2">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1">
         <v>2</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N30" t="s">
-        <v>186</v>
-      </c>
-      <c r="O30" s="1">
-        <v>44343</v>
+        <v>185</v>
+      </c>
+      <c r="O30" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="2">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
         <v>4</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>5</v>
       </c>
-      <c r="H31" t="s">
-        <v>6</v>
-      </c>
       <c r="I31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N31" t="s">
-        <v>189</v>
-      </c>
-      <c r="O31" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O31" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="2">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
         <v>34</v>
       </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
       <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
         <v>5</v>
       </c>
-      <c r="H32" t="s">
-        <v>6</v>
-      </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N32" t="s">
-        <v>186</v>
-      </c>
-      <c r="O32" s="1">
-        <v>44231</v>
+        <v>185</v>
+      </c>
+      <c r="O32" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="2">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1">
         <v>3</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
         <v>18</v>
       </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>19</v>
       </c>
-      <c r="H33" t="s">
-        <v>20</v>
-      </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N33" t="s">
-        <v>189</v>
-      </c>
-      <c r="O33" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O33" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="2">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1">
         <v>3</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
         <v>4</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>5</v>
       </c>
-      <c r="H34" t="s">
-        <v>6</v>
-      </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s">
+        <v>189</v>
+      </c>
+      <c r="N34" t="s">
+        <v>188</v>
+      </c>
+      <c r="O34" t="s">
         <v>190</v>
-      </c>
-      <c r="N34" t="s">
-        <v>189</v>
-      </c>
-      <c r="O34" s="1">
-        <v>44923</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="2">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1">
         <v>2</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N35" t="s">
-        <v>189</v>
-      </c>
-      <c r="O35" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O35" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="2">
+        <v>66</v>
+      </c>
+      <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
         <v>18</v>
       </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
       <c r="H36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N36" t="s">
-        <v>186</v>
-      </c>
-      <c r="O36" s="1">
-        <v>44860</v>
+        <v>185</v>
+      </c>
+      <c r="O36" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="2">
-        <v>3</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
       <c r="E37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
         <v>4</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>5</v>
       </c>
-      <c r="H37" t="s">
-        <v>6</v>
-      </c>
       <c r="I37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N37" t="s">
-        <v>189</v>
-      </c>
-      <c r="O37" s="1">
-        <v>44503</v>
+        <v>188</v>
+      </c>
+      <c r="O37" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="2">
-        <v>3</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" t="s">
-        <v>71</v>
-      </c>
       <c r="K38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N38" t="s">
-        <v>189</v>
-      </c>
-      <c r="O38" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O38" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="2">
+        <v>71</v>
+      </c>
+      <c r="B39" s="1">
         <v>1</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
         <v>4</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>5</v>
       </c>
-      <c r="H39" t="s">
-        <v>6</v>
-      </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N39" t="s">
-        <v>186</v>
-      </c>
-      <c r="O39" s="1">
-        <v>44832</v>
+        <v>185</v>
+      </c>
+      <c r="O39" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="2">
+        <v>72</v>
+      </c>
+      <c r="B40" s="1">
         <v>3</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
       <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
         <v>2</v>
       </c>
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
       <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
         <v>12</v>
       </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
       <c r="H40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N40" t="s">
-        <v>189</v>
-      </c>
-      <c r="O40" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O40" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="2">
+        <v>73</v>
+      </c>
+      <c r="B41" s="1">
         <v>3</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N41" t="s">
+        <v>189</v>
+      </c>
+      <c r="O41" t="s">
         <v>190</v>
-      </c>
-      <c r="O41" s="1">
-        <v>44392</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="2">
+        <v>74</v>
+      </c>
+      <c r="B42" s="1">
         <v>3</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N42" t="s">
-        <v>188</v>
-      </c>
-      <c r="O42" s="1">
-        <v>44881</v>
+        <v>187</v>
+      </c>
+      <c r="O42" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="2">
-        <v>3</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" t="s">
-        <v>77</v>
-      </c>
       <c r="K43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N43" t="s">
-        <v>187</v>
-      </c>
-      <c r="O43" s="1">
-        <v>44231</v>
+        <v>186</v>
+      </c>
+      <c r="O43" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="2">
+        <v>77</v>
+      </c>
+      <c r="B44" s="1">
         <v>3</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
         <v>4</v>
       </c>
-      <c r="G44" t="s">
-        <v>5</v>
-      </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M44" t="s">
+        <v>189</v>
+      </c>
+      <c r="N44" t="s">
+        <v>187</v>
+      </c>
+      <c r="O44" t="s">
         <v>190</v>
-      </c>
-      <c r="N44" t="s">
-        <v>188</v>
-      </c>
-      <c r="O44" s="1">
-        <v>44406</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1">
         <v>3</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
         <v>18</v>
       </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>19</v>
       </c>
-      <c r="H45" t="s">
-        <v>20</v>
-      </c>
       <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
         <v>14</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>15</v>
       </c>
-      <c r="K45" t="s">
-        <v>16</v>
-      </c>
       <c r="L45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N45" t="s">
-        <v>189</v>
-      </c>
-      <c r="O45" s="1">
-        <v>44615</v>
+        <v>188</v>
+      </c>
+      <c r="O45" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="2">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1">
         <v>3</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
         <v>4</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>5</v>
       </c>
-      <c r="H46" t="s">
-        <v>6</v>
-      </c>
       <c r="I46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N46" t="s">
-        <v>190</v>
-      </c>
-      <c r="O46" s="1">
-        <v>44705</v>
+        <v>189</v>
+      </c>
+      <c r="O46" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="2">
+        <v>80</v>
+      </c>
+      <c r="B47" s="1">
         <v>3</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
         <v>34</v>
       </c>
-      <c r="F47" t="s">
-        <v>35</v>
-      </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N47" t="s">
-        <v>189</v>
-      </c>
-      <c r="O47" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O47" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="2">
+        <v>81</v>
+      </c>
+      <c r="B48" s="1">
         <v>3</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L48" t="s">
+        <v>189</v>
+      </c>
+      <c r="M48" t="s">
+        <v>185</v>
+      </c>
+      <c r="N48" t="s">
+        <v>187</v>
+      </c>
+      <c r="O48" t="s">
         <v>190</v>
-      </c>
-      <c r="M48" t="s">
-        <v>186</v>
-      </c>
-      <c r="N48" t="s">
-        <v>188</v>
-      </c>
-      <c r="O48" s="1">
-        <v>44762</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="2">
+        <v>82</v>
+      </c>
+      <c r="B49" s="1">
         <v>3</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N49" t="s">
-        <v>190</v>
-      </c>
-      <c r="O49" s="1">
-        <v>44231</v>
+        <v>189</v>
+      </c>
+      <c r="O49" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="2">
+        <v>83</v>
+      </c>
+      <c r="B50" s="1">
         <v>3</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
         <v>4</v>
       </c>
-      <c r="G50" t="s">
-        <v>5</v>
-      </c>
       <c r="H50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M50" t="s">
+        <v>189</v>
+      </c>
+      <c r="N50" t="s">
+        <v>187</v>
+      </c>
+      <c r="O50" t="s">
         <v>190</v>
-      </c>
-      <c r="N50" t="s">
-        <v>188</v>
-      </c>
-      <c r="O50" s="1">
-        <v>44406</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="2">
+        <v>84</v>
+      </c>
+      <c r="B51" s="1">
         <v>3</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
         <v>19</v>
       </c>
-      <c r="H51" t="s">
-        <v>20</v>
-      </c>
       <c r="I51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N51" t="s">
-        <v>190</v>
-      </c>
-      <c r="O51" s="1">
-        <v>44678</v>
+        <v>189</v>
+      </c>
+      <c r="O51" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="2">
+        <v>85</v>
+      </c>
+      <c r="B52" s="1">
         <v>3</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
         <v>4</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>5</v>
       </c>
-      <c r="H52" t="s">
-        <v>6</v>
-      </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N52" t="s">
-        <v>189</v>
-      </c>
-      <c r="O52" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O52" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="2">
+        <v>86</v>
+      </c>
+      <c r="B53" s="1">
         <v>1</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
         <v>4</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>5</v>
       </c>
-      <c r="H53" t="s">
-        <v>6</v>
-      </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M53" t="s">
+        <v>185</v>
+      </c>
+      <c r="N53" t="s">
         <v>186</v>
       </c>
-      <c r="N53" t="s">
-        <v>187</v>
-      </c>
-      <c r="O53" s="1">
-        <v>44406</v>
+      <c r="O53" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="2">
+        <v>87</v>
+      </c>
+      <c r="B54" s="1">
         <v>3</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" t="s">
         <v>18</v>
       </c>
-      <c r="F54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
       <c r="H54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N54" t="s">
-        <v>188</v>
-      </c>
-      <c r="O54" s="1">
-        <v>44252</v>
+        <v>187</v>
+      </c>
+      <c r="O54" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="2">
+        <v>88</v>
+      </c>
+      <c r="B55" s="1">
         <v>3</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
         <v>18</v>
       </c>
-      <c r="F55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
       <c r="H55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" t="s">
         <v>7</v>
       </c>
-      <c r="I55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" t="s">
-        <v>8</v>
-      </c>
       <c r="K55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N55" t="s">
-        <v>190</v>
-      </c>
-      <c r="O55" s="1">
-        <v>44767</v>
+        <v>189</v>
+      </c>
+      <c r="O55" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="2">
+        <v>89</v>
+      </c>
+      <c r="B56" s="1">
         <v>2</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
       <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" t="s">
         <v>22</v>
       </c>
-      <c r="E56" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" t="s">
-        <v>23</v>
-      </c>
       <c r="K56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N56" t="s">
-        <v>189</v>
-      </c>
-      <c r="O56" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O56" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>91</v>
-      </c>
-      <c r="B57" s="2">
+        <v>90</v>
+      </c>
+      <c r="B57" s="1">
         <v>1</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
         <v>22</v>
       </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" t="s">
-        <v>23</v>
-      </c>
       <c r="K57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N57" t="s">
-        <v>189</v>
-      </c>
-      <c r="O57" s="1">
-        <v>44923</v>
+        <v>188</v>
+      </c>
+      <c r="O57" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="2">
+        <v>91</v>
+      </c>
+      <c r="B58" s="1">
         <v>1</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
         <v>4</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>5</v>
       </c>
-      <c r="H58" t="s">
-        <v>6</v>
-      </c>
       <c r="I58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N58" t="s">
-        <v>186</v>
-      </c>
-      <c r="O58" s="1">
-        <v>44231</v>
+        <v>185</v>
+      </c>
+      <c r="O58" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="2">
+        <v>92</v>
+      </c>
+      <c r="B59" s="1">
         <v>3</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
         <v>4</v>
       </c>
-      <c r="G59" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N59" t="s">
-        <v>189</v>
-      </c>
-      <c r="O59" s="1">
-        <v>44678</v>
+        <v>188</v>
+      </c>
+      <c r="O59" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="2">
+        <v>93</v>
+      </c>
+      <c r="B60" s="1">
         <v>3</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N60" t="s">
-        <v>189</v>
-      </c>
-      <c r="O60" s="1">
-        <v>44957</v>
+        <v>188</v>
+      </c>
+      <c r="O60" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" s="2">
+        <v>94</v>
+      </c>
+      <c r="B61" s="1">
         <v>3</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N61" t="s">
-        <v>189</v>
-      </c>
-      <c r="O61" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O61" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="2">
+        <v>95</v>
+      </c>
+      <c r="B62" s="1">
         <v>3</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
         <v>18</v>
       </c>
-      <c r="F62" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>19</v>
       </c>
-      <c r="H62" t="s">
-        <v>20</v>
-      </c>
       <c r="I62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N62" t="s">
+        <v>189</v>
+      </c>
+      <c r="O62" t="s">
         <v>190</v>
-      </c>
-      <c r="O62" s="1">
-        <v>44468</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63" s="2">
+        <v>96</v>
+      </c>
+      <c r="B63" s="1">
         <v>2</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" t="s">
         <v>14</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>15</v>
       </c>
-      <c r="K63" t="s">
-        <v>16</v>
-      </c>
       <c r="L63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N63" t="s">
-        <v>186</v>
-      </c>
-      <c r="O63" s="1">
-        <v>44231</v>
+        <v>185</v>
+      </c>
+      <c r="O63" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64" s="2">
+        <v>97</v>
+      </c>
+      <c r="B64" s="1">
         <v>3</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N64" t="s">
-        <v>189</v>
-      </c>
-      <c r="O64" s="1">
-        <v>44797</v>
+        <v>188</v>
+      </c>
+      <c r="O64" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65" s="2">
+        <v>98</v>
+      </c>
+      <c r="B65" s="1">
         <v>2</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I65" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" t="s">
         <v>14</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>15</v>
       </c>
-      <c r="K65" t="s">
-        <v>16</v>
-      </c>
       <c r="L65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N65" t="s">
-        <v>186</v>
-      </c>
-      <c r="O65" s="1">
-        <v>44434</v>
+        <v>185</v>
+      </c>
+      <c r="O65" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="2">
+        <v>99</v>
+      </c>
+      <c r="B66" s="1">
         <v>3</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" t="s">
         <v>4</v>
       </c>
-      <c r="G66" t="s">
-        <v>5</v>
-      </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N66" t="s">
-        <v>189</v>
-      </c>
-      <c r="O66" s="1">
-        <v>44357</v>
+        <v>188</v>
+      </c>
+      <c r="O66" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="2">
-        <v>3</v>
-      </c>
-      <c r="C67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
-        <v>102</v>
-      </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
         <v>12</v>
       </c>
-      <c r="G67" t="s">
-        <v>13</v>
-      </c>
       <c r="H67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N67" t="s">
-        <v>188</v>
-      </c>
-      <c r="O67" s="1">
-        <v>44825</v>
+        <v>187</v>
+      </c>
+      <c r="O67" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>103</v>
-      </c>
-      <c r="B68" s="2">
+        <v>102</v>
+      </c>
+      <c r="B68" s="1">
         <v>1</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
         <v>4</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>5</v>
       </c>
-      <c r="H68" t="s">
-        <v>6</v>
-      </c>
       <c r="I68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L68" t="s">
+        <v>185</v>
+      </c>
+      <c r="M68" t="s">
         <v>186</v>
       </c>
-      <c r="M68" t="s">
-        <v>187</v>
-      </c>
       <c r="N68" t="s">
-        <v>189</v>
-      </c>
-      <c r="O68" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O68" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="2">
+        <v>103</v>
+      </c>
+      <c r="B69" s="1">
         <v>1</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N69" t="s">
-        <v>189</v>
-      </c>
-      <c r="O69" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O69" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>105</v>
-      </c>
-      <c r="B70" s="2">
+        <v>104</v>
+      </c>
+      <c r="B70" s="1">
         <v>3</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M70" t="s">
+        <v>189</v>
+      </c>
+      <c r="N70" t="s">
+        <v>186</v>
+      </c>
+      <c r="O70" t="s">
         <v>190</v>
-      </c>
-      <c r="N70" t="s">
-        <v>187</v>
-      </c>
-      <c r="O70" s="1">
-        <v>44231</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>106</v>
-      </c>
-      <c r="B71" s="2">
+        <v>105</v>
+      </c>
+      <c r="B71" s="1">
         <v>2</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
         <v>2</v>
       </c>
-      <c r="E71" t="s">
-        <v>3</v>
-      </c>
       <c r="F71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N71" t="s">
-        <v>186</v>
-      </c>
-      <c r="O71" s="1">
-        <v>44496</v>
+        <v>185</v>
+      </c>
+      <c r="O71" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" s="2">
+        <v>106</v>
+      </c>
+      <c r="B72" s="1">
         <v>3</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I72" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" t="s">
         <v>14</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>15</v>
       </c>
-      <c r="K72" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N72" t="s">
-        <v>190</v>
-      </c>
-      <c r="O72" s="1">
-        <v>44860</v>
+        <v>189</v>
+      </c>
+      <c r="O72" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>108</v>
-      </c>
-      <c r="B73" s="2">
+        <v>107</v>
+      </c>
+      <c r="B73" s="1">
         <v>3</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" t="s">
         <v>34</v>
       </c>
-      <c r="F73" t="s">
-        <v>35</v>
-      </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N73" t="s">
-        <v>190</v>
-      </c>
-      <c r="O73" s="1">
-        <v>44628</v>
+        <v>189</v>
+      </c>
+      <c r="O73" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>109</v>
-      </c>
-      <c r="B74" s="2">
+        <v>108</v>
+      </c>
+      <c r="B74" s="1">
         <v>3</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" t="s">
         <v>4</v>
       </c>
-      <c r="G74" t="s">
-        <v>5</v>
-      </c>
       <c r="H74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N74" t="s">
-        <v>188</v>
-      </c>
-      <c r="O74" s="1">
-        <v>44238</v>
+        <v>187</v>
+      </c>
+      <c r="O74" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>110</v>
-      </c>
-      <c r="B75" s="2">
+        <v>109</v>
+      </c>
+      <c r="B75" s="1">
         <v>3</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" t="s">
         <v>18</v>
       </c>
-      <c r="F75" t="s">
-        <v>4</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
       <c r="H75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N75" t="s">
-        <v>188</v>
-      </c>
-      <c r="O75" s="1">
-        <v>44377</v>
+        <v>187</v>
+      </c>
+      <c r="O75" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="2">
-        <v>3</v>
-      </c>
-      <c r="C76" t="b">
-        <v>0</v>
-      </c>
-      <c r="D76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" t="s">
-        <v>35</v>
-      </c>
-      <c r="G76" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" t="s">
-        <v>112</v>
-      </c>
       <c r="K76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N76" t="s">
-        <v>189</v>
-      </c>
-      <c r="O76" s="1">
-        <v>44957</v>
+        <v>188</v>
+      </c>
+      <c r="O76" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>113</v>
-      </c>
-      <c r="B77" s="2">
+        <v>112</v>
+      </c>
+      <c r="B77" s="1">
         <v>1</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" t="s">
         <v>18</v>
       </c>
-      <c r="F77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
       <c r="H77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N77" t="s">
-        <v>189</v>
-      </c>
-      <c r="O77" s="1">
-        <v>44678</v>
+        <v>188</v>
+      </c>
+      <c r="O77" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>114</v>
-      </c>
-      <c r="B78" s="2">
+        <v>113</v>
+      </c>
+      <c r="B78" s="1">
         <v>3</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N78" t="s">
-        <v>188</v>
-      </c>
-      <c r="O78" s="1">
-        <v>44294</v>
+        <v>187</v>
+      </c>
+      <c r="O78" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>115</v>
-      </c>
-      <c r="B79" s="2">
+        <v>114</v>
+      </c>
+      <c r="B79" s="1">
         <v>3</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N79" t="s">
-        <v>190</v>
-      </c>
-      <c r="O79" s="1">
-        <v>44950</v>
+        <v>189</v>
+      </c>
+      <c r="O79" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>116</v>
-      </c>
-      <c r="B80" s="2">
+        <v>115</v>
+      </c>
+      <c r="B80" s="1">
         <v>3</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" t="s">
         <v>14</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>15</v>
       </c>
-      <c r="K80" t="s">
-        <v>16</v>
-      </c>
       <c r="L80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N80" t="s">
-        <v>189</v>
-      </c>
-      <c r="O80" s="1">
-        <v>44601</v>
+        <v>188</v>
+      </c>
+      <c r="O80" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>117</v>
-      </c>
-      <c r="B81" s="2">
+        <v>116</v>
+      </c>
+      <c r="B81" s="1">
         <v>3</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s">
         <v>34</v>
       </c>
-      <c r="F81" t="s">
-        <v>35</v>
-      </c>
       <c r="G81" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" t="s">
         <v>5</v>
       </c>
-      <c r="H81" t="s">
-        <v>6</v>
-      </c>
       <c r="I81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N81" t="s">
-        <v>188</v>
-      </c>
-      <c r="O81" s="1">
-        <v>44937</v>
+        <v>187</v>
+      </c>
+      <c r="O81" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="2">
-        <v>3</v>
-      </c>
-      <c r="C82" t="b">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
-        <v>33</v>
-      </c>
-      <c r="E82" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" t="s">
-        <v>4</v>
-      </c>
-      <c r="G82" t="s">
-        <v>5</v>
-      </c>
-      <c r="H82" t="s">
-        <v>7</v>
-      </c>
-      <c r="I82" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" t="s">
-        <v>119</v>
-      </c>
       <c r="K82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N82" t="s">
-        <v>190</v>
-      </c>
-      <c r="O82" s="1">
-        <v>44705</v>
+        <v>189</v>
+      </c>
+      <c r="O82" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="1">
+        <v>3</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
         <v>120</v>
       </c>
-      <c r="B83" s="2">
-        <v>3</v>
-      </c>
-      <c r="C83" t="b">
-        <v>0</v>
-      </c>
-      <c r="D83" t="s">
-        <v>121</v>
-      </c>
       <c r="E83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" t="s">
         <v>34</v>
       </c>
-      <c r="F83" t="s">
-        <v>35</v>
-      </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N83" t="s">
-        <v>189</v>
-      </c>
-      <c r="O83" s="1">
-        <v>44643</v>
+        <v>188</v>
+      </c>
+      <c r="O83" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>122</v>
-      </c>
-      <c r="B84" s="2">
+        <v>121</v>
+      </c>
+      <c r="B84" s="1">
         <v>3</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N84" t="s">
-        <v>188</v>
-      </c>
-      <c r="O84" s="1">
-        <v>44657</v>
+        <v>187</v>
+      </c>
+      <c r="O84" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>123</v>
-      </c>
-      <c r="B85" s="2">
+        <v>122</v>
+      </c>
+      <c r="B85" s="1">
         <v>3</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N85" t="s">
-        <v>190</v>
-      </c>
-      <c r="O85" s="1">
-        <v>44797</v>
+        <v>189</v>
+      </c>
+      <c r="O85" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>124</v>
-      </c>
-      <c r="B86" s="2">
+        <v>123</v>
+      </c>
+      <c r="B86" s="1">
         <v>2</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
       <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="E86" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>12</v>
       </c>
-      <c r="G86" t="s">
-        <v>13</v>
-      </c>
       <c r="H86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N86" t="s">
-        <v>188</v>
-      </c>
-      <c r="O86" s="1">
-        <v>44294</v>
+        <v>187</v>
+      </c>
+      <c r="O86" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>125</v>
-      </c>
-      <c r="B87" s="2">
+        <v>124</v>
+      </c>
+      <c r="B87" s="1">
         <v>2</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
         <v>4</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>5</v>
       </c>
-      <c r="H87" t="s">
-        <v>6</v>
-      </c>
       <c r="I87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N87" t="s">
-        <v>188</v>
-      </c>
-      <c r="O87" s="1">
-        <v>44231</v>
+        <v>187</v>
+      </c>
+      <c r="O87" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>126</v>
-      </c>
-      <c r="B88" s="2">
+        <v>125</v>
+      </c>
+      <c r="B88" s="1">
         <v>3</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
         <v>18</v>
       </c>
-      <c r="F88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>19</v>
       </c>
-      <c r="H88" t="s">
-        <v>20</v>
-      </c>
       <c r="I88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M88" t="s">
+        <v>189</v>
+      </c>
+      <c r="N88" t="s">
+        <v>188</v>
+      </c>
+      <c r="O88" t="s">
         <v>190</v>
-      </c>
-      <c r="N88" t="s">
-        <v>189</v>
-      </c>
-      <c r="O88" s="1">
-        <v>44559</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>127</v>
-      </c>
-      <c r="B89" s="2">
+        <v>126</v>
+      </c>
+      <c r="B89" s="1">
         <v>3</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" t="s">
         <v>34</v>
       </c>
-      <c r="F89" t="s">
-        <v>35</v>
-      </c>
       <c r="G89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" t="s">
         <v>19</v>
       </c>
-      <c r="H89" t="s">
-        <v>20</v>
-      </c>
       <c r="I89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J89" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" t="s">
         <v>8</v>
       </c>
-      <c r="K89" t="s">
-        <v>9</v>
-      </c>
       <c r="L89" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N89" t="s">
-        <v>190</v>
-      </c>
-      <c r="O89" s="1">
-        <v>44496</v>
+        <v>189</v>
+      </c>
+      <c r="O89" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>128</v>
-      </c>
-      <c r="B90" s="2">
+        <v>127</v>
+      </c>
+      <c r="B90" s="1">
         <v>3</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N90" t="s">
-        <v>189</v>
-      </c>
-      <c r="O90" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O90" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>129</v>
-      </c>
-      <c r="B91" s="2">
+        <v>128</v>
+      </c>
+      <c r="B91" s="1">
         <v>3</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" t="s">
         <v>34</v>
       </c>
-      <c r="F91" t="s">
-        <v>35</v>
-      </c>
       <c r="G91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M91" t="s">
+        <v>189</v>
+      </c>
+      <c r="N91" t="s">
+        <v>187</v>
+      </c>
+      <c r="O91" t="s">
         <v>190</v>
-      </c>
-      <c r="N91" t="s">
-        <v>188</v>
-      </c>
-      <c r="O91" s="1">
-        <v>44468</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>130</v>
-      </c>
-      <c r="B92" s="2">
+        <v>129</v>
+      </c>
+      <c r="B92" s="1">
         <v>3</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
       <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="E92" t="s">
-        <v>3</v>
-      </c>
-      <c r="F92" t="s">
-        <v>12</v>
-      </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I92" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" t="s">
         <v>14</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>15</v>
       </c>
-      <c r="K92" t="s">
-        <v>16</v>
-      </c>
       <c r="L92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N92" t="s">
-        <v>190</v>
-      </c>
-      <c r="O92" s="1">
-        <v>44832</v>
+        <v>189</v>
+      </c>
+      <c r="O92" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>131</v>
-      </c>
-      <c r="B93" s="2">
+        <v>130</v>
+      </c>
+      <c r="B93" s="1">
         <v>1</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" t="s">
         <v>4</v>
       </c>
-      <c r="G93" t="s">
-        <v>5</v>
-      </c>
       <c r="H93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I93" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" t="s">
         <v>7</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>8</v>
       </c>
-      <c r="K93" t="s">
-        <v>9</v>
-      </c>
       <c r="L93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N93" t="s">
-        <v>189</v>
-      </c>
-      <c r="O93" s="1">
-        <v>44315</v>
+        <v>188</v>
+      </c>
+      <c r="O93" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>132</v>
-      </c>
-      <c r="B94" s="2">
+        <v>131</v>
+      </c>
+      <c r="B94" s="1">
         <v>3</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" t="s">
         <v>4</v>
       </c>
-      <c r="G94" t="s">
-        <v>5</v>
-      </c>
       <c r="H94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" t="s">
+        <v>6</v>
+      </c>
+      <c r="J94" t="s">
         <v>7</v>
       </c>
-      <c r="I94" t="s">
-        <v>7</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>8</v>
       </c>
-      <c r="K94" t="s">
-        <v>9</v>
-      </c>
       <c r="L94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N94" t="s">
-        <v>190</v>
-      </c>
-      <c r="O94" s="1">
-        <v>44545</v>
+        <v>189</v>
+      </c>
+      <c r="O94" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>133</v>
-      </c>
-      <c r="B95" s="2">
+        <v>132</v>
+      </c>
+      <c r="B95" s="1">
         <v>2</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N95" t="s">
-        <v>188</v>
-      </c>
-      <c r="O95" s="1">
-        <v>44231</v>
+        <v>187</v>
+      </c>
+      <c r="O95" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>134</v>
-      </c>
-      <c r="B96" s="2">
+        <v>133</v>
+      </c>
+      <c r="B96" s="1">
         <v>3</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F96" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" t="s">
         <v>4</v>
       </c>
-      <c r="G96" t="s">
-        <v>5</v>
-      </c>
       <c r="H96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L96" t="s">
+        <v>189</v>
+      </c>
+      <c r="M96" t="s">
+        <v>187</v>
+      </c>
+      <c r="N96" t="s">
+        <v>188</v>
+      </c>
+      <c r="O96" t="s">
         <v>190</v>
-      </c>
-      <c r="M96" t="s">
-        <v>188</v>
-      </c>
-      <c r="N96" t="s">
-        <v>189</v>
-      </c>
-      <c r="O96" s="1">
-        <v>44734</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>135</v>
-      </c>
-      <c r="B97" s="2">
+        <v>134</v>
+      </c>
+      <c r="B97" s="1">
         <v>1</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J97" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L97" t="s">
+        <v>185</v>
+      </c>
+      <c r="M97" t="s">
+        <v>188</v>
+      </c>
+      <c r="N97" t="s">
         <v>186</v>
       </c>
-      <c r="M97" t="s">
-        <v>189</v>
-      </c>
-      <c r="N97" t="s">
-        <v>187</v>
-      </c>
-      <c r="O97" s="1">
-        <v>44231</v>
+      <c r="O97" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>136</v>
-      </c>
-      <c r="B98" s="2">
+        <v>135</v>
+      </c>
+      <c r="B98" s="1">
         <v>3</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L98" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N98" t="s">
-        <v>189</v>
-      </c>
-      <c r="O98" s="1">
-        <v>44643</v>
+        <v>188</v>
+      </c>
+      <c r="O98" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>137</v>
-      </c>
-      <c r="B99" s="2">
+        <v>136</v>
+      </c>
+      <c r="B99" s="1">
         <v>3</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
         <v>18</v>
       </c>
-      <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
       <c r="H99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L99" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M99" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N99" t="s">
-        <v>189</v>
-      </c>
-      <c r="O99" s="1">
-        <v>44967</v>
+        <v>188</v>
+      </c>
+      <c r="O99" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>138</v>
-      </c>
-      <c r="B100" s="2">
+        <v>137</v>
+      </c>
+      <c r="B100" s="1">
         <v>3</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L100" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N100" t="s">
-        <v>190</v>
-      </c>
-      <c r="O100" s="1">
-        <v>44782</v>
+        <v>189</v>
+      </c>
+      <c r="O100" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>139</v>
-      </c>
-      <c r="B101" s="2">
+        <v>138</v>
+      </c>
+      <c r="B101" s="1">
         <v>3</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F101" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
         <v>4</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>5</v>
       </c>
-      <c r="H101" t="s">
-        <v>6</v>
-      </c>
       <c r="I101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N101" t="s">
-        <v>190</v>
-      </c>
-      <c r="O101" s="1">
-        <v>44231</v>
+        <v>189</v>
+      </c>
+      <c r="O101" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>140</v>
-      </c>
-      <c r="B102" s="2">
+        <v>139</v>
+      </c>
+      <c r="B102" s="1">
         <v>3</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L102" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M102" t="s">
+        <v>189</v>
+      </c>
+      <c r="N102" t="s">
+        <v>188</v>
+      </c>
+      <c r="O102" t="s">
         <v>190</v>
-      </c>
-      <c r="N102" t="s">
-        <v>189</v>
-      </c>
-      <c r="O102" s="1">
-        <v>44448</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>141</v>
-      </c>
-      <c r="B103" s="2">
+        <v>140</v>
+      </c>
+      <c r="B103" s="1">
         <v>3</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L103" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N103" t="s">
-        <v>188</v>
-      </c>
-      <c r="O103" s="1">
-        <v>44591</v>
+        <v>187</v>
+      </c>
+      <c r="O103" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>142</v>
-      </c>
-      <c r="B104" s="2">
+        <v>141</v>
+      </c>
+      <c r="B104" s="1">
         <v>2</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G104" t="s">
+        <v>4</v>
+      </c>
+      <c r="H104" t="s">
         <v>5</v>
       </c>
-      <c r="H104" t="s">
-        <v>6</v>
-      </c>
       <c r="I104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N104" t="s">
-        <v>186</v>
-      </c>
-      <c r="O104" s="1">
-        <v>44231</v>
+        <v>185</v>
+      </c>
+      <c r="O104" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>143</v>
-      </c>
-      <c r="B105" s="2">
+        <v>142</v>
+      </c>
+      <c r="B105" s="1">
         <v>3</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N105" t="s">
+        <v>189</v>
+      </c>
+      <c r="O105" t="s">
         <v>190</v>
-      </c>
-      <c r="O105" s="1">
-        <v>44573</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>144</v>
-      </c>
-      <c r="B106" s="2">
+        <v>143</v>
+      </c>
+      <c r="B106" s="1">
         <v>1</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L106" t="s">
+        <v>185</v>
+      </c>
+      <c r="M106" t="s">
         <v>186</v>
       </c>
-      <c r="M106" t="s">
-        <v>187</v>
-      </c>
       <c r="N106" t="s">
-        <v>189</v>
-      </c>
-      <c r="O106" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O106" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>145</v>
-      </c>
-      <c r="B107" s="2">
+        <v>144</v>
+      </c>
+      <c r="B107" s="1">
         <v>3</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
       </c>
       <c r="D107" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
         <v>2</v>
       </c>
-      <c r="E107" t="s">
-        <v>3</v>
-      </c>
       <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
         <v>12</v>
       </c>
-      <c r="G107" t="s">
-        <v>13</v>
-      </c>
       <c r="H107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M107" t="s">
+        <v>189</v>
+      </c>
+      <c r="N107" t="s">
+        <v>188</v>
+      </c>
+      <c r="O107" t="s">
         <v>190</v>
-      </c>
-      <c r="N107" t="s">
-        <v>189</v>
-      </c>
-      <c r="O107" s="1">
-        <v>44909</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>146</v>
-      </c>
-      <c r="B108" s="2">
+        <v>145</v>
+      </c>
+      <c r="B108" s="1">
         <v>3</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J108" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N108" t="s">
-        <v>189</v>
-      </c>
-      <c r="O108" s="1">
-        <v>44895</v>
+        <v>188</v>
+      </c>
+      <c r="O108" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>147</v>
-      </c>
-      <c r="B109" s="2">
+        <v>146</v>
+      </c>
+      <c r="B109" s="1">
         <v>1</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
       </c>
       <c r="D109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
         <v>2</v>
       </c>
-      <c r="E109" t="s">
-        <v>3</v>
-      </c>
       <c r="F109" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" t="s">
         <v>4</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>5</v>
       </c>
-      <c r="H109" t="s">
-        <v>6</v>
-      </c>
       <c r="I109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N109" t="s">
-        <v>189</v>
-      </c>
-      <c r="O109" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O109" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>148</v>
-      </c>
-      <c r="B110" s="2">
+        <v>147</v>
+      </c>
+      <c r="B110" s="1">
         <v>3</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G110" t="s">
+        <v>4</v>
+      </c>
+      <c r="H110" t="s">
         <v>5</v>
       </c>
-      <c r="H110" t="s">
-        <v>6</v>
-      </c>
       <c r="I110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N110" t="s">
-        <v>188</v>
-      </c>
-      <c r="O110" s="1">
-        <v>44231</v>
+        <v>187</v>
+      </c>
+      <c r="O110" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>149</v>
-      </c>
-      <c r="B111" s="2">
+        <v>148</v>
+      </c>
+      <c r="B111" s="1">
         <v>3</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E111" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
         <v>18</v>
       </c>
-      <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>19</v>
       </c>
-      <c r="H111" t="s">
-        <v>20</v>
-      </c>
       <c r="I111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L111" t="s">
+        <v>189</v>
+      </c>
+      <c r="M111" t="s">
+        <v>188</v>
+      </c>
+      <c r="N111" t="s">
+        <v>187</v>
+      </c>
+      <c r="O111" t="s">
         <v>190</v>
-      </c>
-      <c r="M111" t="s">
-        <v>189</v>
-      </c>
-      <c r="N111" t="s">
-        <v>188</v>
-      </c>
-      <c r="O111" s="1">
-        <v>44420</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>150</v>
-      </c>
-      <c r="B112" s="2">
+        <v>149</v>
+      </c>
+      <c r="B112" s="1">
         <v>2</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L112" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M112" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N112" t="s">
-        <v>189</v>
-      </c>
-      <c r="O112" s="1">
-        <v>44252</v>
+        <v>188</v>
+      </c>
+      <c r="O112" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>151</v>
-      </c>
-      <c r="B113" s="2">
+        <v>150</v>
+      </c>
+      <c r="B113" s="1">
         <v>1</v>
       </c>
       <c r="C113" t="b">
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G113" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" t="s">
         <v>19</v>
       </c>
-      <c r="H113" t="s">
-        <v>20</v>
-      </c>
       <c r="I113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L113" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M113" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N113" t="s">
-        <v>189</v>
-      </c>
-      <c r="O113" s="1">
-        <v>44762</v>
+        <v>188</v>
+      </c>
+      <c r="O113" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>152</v>
-      </c>
-      <c r="B114" s="2">
+        <v>151</v>
+      </c>
+      <c r="B114" s="1">
         <v>3</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F114" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" t="s">
         <v>4</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>5</v>
       </c>
-      <c r="H114" t="s">
-        <v>6</v>
-      </c>
       <c r="I114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M114" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N114" t="s">
-        <v>188</v>
-      </c>
-      <c r="O114" s="1">
-        <v>44231</v>
+        <v>187</v>
+      </c>
+      <c r="O114" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B115" s="2">
+        <v>152</v>
+      </c>
+      <c r="B115" s="1">
         <v>3</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F115" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" t="s">
         <v>4</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>5</v>
       </c>
-      <c r="H115" t="s">
-        <v>6</v>
-      </c>
       <c r="I115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L115" t="s">
+        <v>189</v>
+      </c>
+      <c r="M115" t="s">
+        <v>187</v>
+      </c>
+      <c r="N115" t="s">
+        <v>188</v>
+      </c>
+      <c r="O115" t="s">
         <v>190</v>
-      </c>
-      <c r="M115" t="s">
-        <v>188</v>
-      </c>
-      <c r="N115" t="s">
-        <v>189</v>
-      </c>
-      <c r="O115" s="1">
-        <v>44434</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>154</v>
-      </c>
-      <c r="B116" s="2">
+        <v>153</v>
+      </c>
+      <c r="B116" s="1">
         <v>3</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L116" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M116" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N116" t="s">
+        <v>189</v>
+      </c>
+      <c r="O116" t="s">
         <v>190</v>
-      </c>
-      <c r="O116" s="1">
-        <v>44231</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>155</v>
-      </c>
-      <c r="B117" s="2">
+        <v>154</v>
+      </c>
+      <c r="B117" s="1">
         <v>1</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
       </c>
       <c r="D117" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
         <v>2</v>
       </c>
-      <c r="E117" t="s">
-        <v>3</v>
-      </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N117" t="s">
-        <v>189</v>
-      </c>
-      <c r="O117" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O117" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>156</v>
-      </c>
-      <c r="B118" s="2">
+        <v>155</v>
+      </c>
+      <c r="B118" s="1">
         <v>1</v>
       </c>
       <c r="C118" t="b">
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M118" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N118" t="s">
-        <v>186</v>
-      </c>
-      <c r="O118" s="1">
-        <v>44530</v>
+        <v>185</v>
+      </c>
+      <c r="O118" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>157</v>
-      </c>
-      <c r="B119" s="2">
+        <v>156</v>
+      </c>
+      <c r="B119" s="1">
         <v>2</v>
       </c>
       <c r="C119" t="b">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E119" t="s">
+        <v>33</v>
+      </c>
+      <c r="F119" t="s">
         <v>34</v>
       </c>
-      <c r="F119" t="s">
-        <v>35</v>
-      </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H119" t="s">
+        <v>6</v>
+      </c>
+      <c r="I119" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119" t="s">
         <v>7</v>
       </c>
-      <c r="I119" t="s">
-        <v>14</v>
-      </c>
-      <c r="J119" t="s">
+      <c r="K119" t="s">
         <v>8</v>
       </c>
-      <c r="K119" t="s">
-        <v>9</v>
-      </c>
       <c r="L119" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M119" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N119" t="s">
-        <v>188</v>
-      </c>
-      <c r="O119" s="1">
-        <v>44231</v>
+        <v>187</v>
+      </c>
+      <c r="O119" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>158</v>
-      </c>
-      <c r="B120" s="2">
+        <v>157</v>
+      </c>
+      <c r="B120" s="1">
         <v>3</v>
       </c>
       <c r="C120" t="b">
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E120" t="s">
+        <v>33</v>
+      </c>
+      <c r="F120" t="s">
         <v>34</v>
       </c>
-      <c r="F120" t="s">
-        <v>35</v>
-      </c>
       <c r="G120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L120" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M120" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N120" t="s">
-        <v>190</v>
-      </c>
-      <c r="O120" s="1">
-        <v>44692</v>
+        <v>189</v>
+      </c>
+      <c r="O120" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>159</v>
-      </c>
-      <c r="B121" s="2">
+        <v>158</v>
+      </c>
+      <c r="B121" s="1">
         <v>3</v>
       </c>
       <c r="C121" t="b">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L121" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N121" t="s">
-        <v>190</v>
-      </c>
-      <c r="O121" s="1">
-        <v>44231</v>
+        <v>189</v>
+      </c>
+      <c r="O121" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>160</v>
-      </c>
-      <c r="B122" s="2">
+        <v>159</v>
+      </c>
+      <c r="B122" s="1">
         <v>1</v>
       </c>
       <c r="C122" t="b">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
         <v>18</v>
       </c>
-      <c r="F122" t="s">
-        <v>35</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
       <c r="H122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J122" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M122" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N122" t="s">
-        <v>186</v>
-      </c>
-      <c r="O122" s="1">
-        <v>44377</v>
+        <v>185</v>
+      </c>
+      <c r="O122" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>161</v>
-      </c>
-      <c r="B123" s="2">
+        <v>160</v>
+      </c>
+      <c r="B123" s="1">
         <v>3</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
       </c>
       <c r="D123" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
         <v>2</v>
       </c>
-      <c r="E123" t="s">
-        <v>3</v>
-      </c>
       <c r="F123" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" t="s">
         <v>4</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>5</v>
       </c>
-      <c r="H123" t="s">
-        <v>6</v>
-      </c>
       <c r="I123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N123" t="s">
-        <v>188</v>
-      </c>
-      <c r="O123" s="1">
-        <v>44615</v>
+        <v>187</v>
+      </c>
+      <c r="O123" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>162</v>
-      </c>
-      <c r="B124" s="2">
+        <v>161</v>
+      </c>
+      <c r="B124" s="1">
         <v>2</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I124" t="s">
+        <v>6</v>
+      </c>
+      <c r="J124" t="s">
         <v>7</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>8</v>
       </c>
-      <c r="K124" t="s">
-        <v>9</v>
-      </c>
       <c r="L124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M124" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N124" t="s">
-        <v>186</v>
-      </c>
-      <c r="O124" s="1">
-        <v>44231</v>
+        <v>185</v>
+      </c>
+      <c r="O124" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>163</v>
-      </c>
-      <c r="B125" s="2">
+        <v>162</v>
+      </c>
+      <c r="B125" s="1">
         <v>3</v>
       </c>
       <c r="C125" t="b">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
         <v>18</v>
       </c>
-      <c r="F125" t="s">
-        <v>35</v>
-      </c>
-      <c r="G125" t="s">
-        <v>19</v>
-      </c>
       <c r="H125" t="s">
+        <v>6</v>
+      </c>
+      <c r="I125" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" t="s">
         <v>7</v>
       </c>
-      <c r="I125" t="s">
-        <v>14</v>
-      </c>
-      <c r="J125" t="s">
+      <c r="K125" t="s">
         <v>8</v>
       </c>
-      <c r="K125" t="s">
-        <v>9</v>
-      </c>
       <c r="L125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N125" t="s">
+        <v>189</v>
+      </c>
+      <c r="O125" t="s">
         <v>190</v>
-      </c>
-      <c r="O125" s="1">
-        <v>44832</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>164</v>
-      </c>
-      <c r="B126" s="2">
+        <v>163</v>
+      </c>
+      <c r="B126" s="1">
         <v>3</v>
       </c>
       <c r="C126" t="b">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E126" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" t="s">
         <v>18</v>
       </c>
-      <c r="F126" t="s">
-        <v>4</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
       <c r="H126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L126" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N126" t="s">
-        <v>190</v>
-      </c>
-      <c r="O126" s="1">
-        <v>44587</v>
+        <v>189</v>
+      </c>
+      <c r="O126" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>165</v>
-      </c>
-      <c r="B127" s="2">
+        <v>164</v>
+      </c>
+      <c r="B127" s="1">
         <v>3</v>
       </c>
       <c r="C127" t="b">
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M127" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N127" t="s">
-        <v>189</v>
-      </c>
-      <c r="O127" s="1">
-        <v>44734</v>
+        <v>188</v>
+      </c>
+      <c r="O127" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>166</v>
-      </c>
-      <c r="B128" s="2">
+        <v>165</v>
+      </c>
+      <c r="B128" s="1">
         <v>1</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L128" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M128" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N128" t="s">
-        <v>189</v>
-      </c>
-      <c r="O128" s="1">
-        <v>44231</v>
+        <v>188</v>
+      </c>
+      <c r="O128" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>167</v>
-      </c>
-      <c r="B129" s="2">
+        <v>166</v>
+      </c>
+      <c r="B129" s="1">
         <v>2</v>
       </c>
       <c r="C129" t="b">
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
+        <v>33</v>
+      </c>
+      <c r="F129" t="s">
         <v>34</v>
       </c>
-      <c r="F129" t="s">
-        <v>35</v>
-      </c>
       <c r="G129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L129" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M129" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N129" t="s">
-        <v>186</v>
-      </c>
-      <c r="O129" s="1">
-        <v>44231</v>
+        <v>185</v>
+      </c>
+      <c r="O129" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>168</v>
-      </c>
-      <c r="B130" s="2">
+        <v>167</v>
+      </c>
+      <c r="B130" s="1">
         <v>3</v>
       </c>
       <c r="C130" t="b">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" t="s">
         <v>34</v>
       </c>
-      <c r="F130" t="s">
-        <v>35</v>
-      </c>
       <c r="G130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H130" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" t="s">
+        <v>13</v>
+      </c>
+      <c r="J130" t="s">
         <v>7</v>
       </c>
-      <c r="I130" t="s">
-        <v>14</v>
-      </c>
-      <c r="J130" t="s">
-        <v>8</v>
-      </c>
       <c r="K130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N130" t="s">
+        <v>189</v>
+      </c>
+      <c r="O130" t="s">
         <v>190</v>
-      </c>
-      <c r="O130" s="1">
-        <v>44860</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>169</v>
-      </c>
-      <c r="B131" s="2">
+        <v>168</v>
+      </c>
+      <c r="B131" s="1">
         <v>3</v>
       </c>
       <c r="C131" t="b">
         <v>0</v>
       </c>
       <c r="D131" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="E131" t="s">
-        <v>18</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>12</v>
       </c>
-      <c r="G131" t="s">
-        <v>13</v>
-      </c>
       <c r="H131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L131" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M131" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N131" t="s">
-        <v>188</v>
-      </c>
-      <c r="O131" s="1">
-        <v>44329</v>
+        <v>187</v>
+      </c>
+      <c r="O131" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/data/student.xlsx
+++ b/data/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rama\Personal\SukaSuka\blue-archive-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D076616B-72CF-4042-AF26-8AF1F6F49A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A49EE7B-C0EB-4159-AE3E-E7EEC5973692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0D66DEA-9783-4BB9-97FB-5DEA114F8193}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="241">
   <si>
     <t>Airi</t>
   </si>
@@ -585,9 +585,6 @@
   </si>
   <si>
     <t>weaponType</t>
-  </si>
-  <si>
-    <t>us</t>
   </si>
   <si>
     <t>usesCover</t>
@@ -1281,7 +1278,7 @@
   <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,19 +1331,19 @@
         <v>178</v>
       </c>
       <c r="K1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" t="s">
         <v>180</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>181</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>182</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>183</v>
-      </c>
-      <c r="O1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1384,16 +1381,16 @@
         <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1431,16 +1428,16 @@
         <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1475,19 +1472,19 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1525,16 +1522,16 @@
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1572,16 +1569,16 @@
         <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1619,16 +1616,16 @@
         <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1666,16 +1663,16 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1713,16 +1710,16 @@
         <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N9" t="s">
+        <v>188</v>
+      </c>
+      <c r="O9" t="s">
         <v>189</v>
-      </c>
-      <c r="O9" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1760,16 +1757,16 @@
         <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1807,16 +1804,16 @@
         <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N11" t="s">
+        <v>188</v>
+      </c>
+      <c r="O11" t="s">
         <v>189</v>
-      </c>
-      <c r="O11" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1854,16 +1851,16 @@
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1901,16 +1898,16 @@
         <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1948,16 +1945,16 @@
         <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1995,16 +1992,16 @@
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2042,16 +2039,16 @@
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2089,16 +2086,16 @@
         <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2136,16 +2133,16 @@
         <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2183,16 +2180,16 @@
         <v>8</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2230,16 +2227,16 @@
         <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2277,16 +2274,16 @@
         <v>15</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s">
         <v>189</v>
-      </c>
-      <c r="O21" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2324,16 +2321,16 @@
         <v>15</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2371,16 +2368,16 @@
         <v>15</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M23" t="s">
+        <v>188</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
         <v>189</v>
-      </c>
-      <c r="N23" t="s">
-        <v>187</v>
-      </c>
-      <c r="O23" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2418,16 +2415,16 @@
         <v>8</v>
       </c>
       <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="s">
+        <v>187</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
         <v>189</v>
-      </c>
-      <c r="M24" t="s">
-        <v>188</v>
-      </c>
-      <c r="N24" t="s">
-        <v>187</v>
-      </c>
-      <c r="O24" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2465,16 +2462,16 @@
         <v>15</v>
       </c>
       <c r="L25" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" t="s">
         <v>185</v>
       </c>
-      <c r="M25" t="s">
-        <v>188</v>
-      </c>
-      <c r="N25" t="s">
-        <v>186</v>
-      </c>
       <c r="O25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2512,16 +2509,16 @@
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2559,16 +2556,16 @@
         <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N27" t="s">
+        <v>188</v>
+      </c>
+      <c r="O27" t="s">
         <v>189</v>
-      </c>
-      <c r="O27" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2606,16 +2603,16 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2653,16 +2650,16 @@
         <v>8</v>
       </c>
       <c r="L29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N29" t="s">
+        <v>188</v>
+      </c>
+      <c r="O29" t="s">
         <v>189</v>
-      </c>
-      <c r="O29" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2700,16 +2697,16 @@
         <v>8</v>
       </c>
       <c r="L30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2747,16 +2744,16 @@
         <v>8</v>
       </c>
       <c r="L31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2794,16 +2791,16 @@
         <v>8</v>
       </c>
       <c r="L32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2841,16 +2838,16 @@
         <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2888,16 +2885,16 @@
         <v>15</v>
       </c>
       <c r="L34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M34" t="s">
+        <v>188</v>
+      </c>
+      <c r="N34" t="s">
+        <v>187</v>
+      </c>
+      <c r="O34" t="s">
         <v>189</v>
-      </c>
-      <c r="N34" t="s">
-        <v>188</v>
-      </c>
-      <c r="O34" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2935,16 +2932,16 @@
         <v>15</v>
       </c>
       <c r="L35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2982,16 +2979,16 @@
         <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -3029,16 +3026,16 @@
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3076,16 +3073,16 @@
         <v>8</v>
       </c>
       <c r="L38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3123,16 +3120,16 @@
         <v>8</v>
       </c>
       <c r="L39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3170,16 +3167,16 @@
         <v>15</v>
       </c>
       <c r="L40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3217,16 +3214,16 @@
         <v>15</v>
       </c>
       <c r="L41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N41" t="s">
+        <v>188</v>
+      </c>
+      <c r="O41" t="s">
         <v>189</v>
-      </c>
-      <c r="O41" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3264,16 +3261,16 @@
         <v>8</v>
       </c>
       <c r="L42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3311,16 +3308,16 @@
         <v>8</v>
       </c>
       <c r="L43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3358,16 +3355,16 @@
         <v>8</v>
       </c>
       <c r="L44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M44" t="s">
+        <v>188</v>
+      </c>
+      <c r="N44" t="s">
+        <v>186</v>
+      </c>
+      <c r="O44" t="s">
         <v>189</v>
-      </c>
-      <c r="N44" t="s">
-        <v>187</v>
-      </c>
-      <c r="O44" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3405,16 +3402,16 @@
         <v>15</v>
       </c>
       <c r="L45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3452,16 +3449,16 @@
         <v>8</v>
       </c>
       <c r="L46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3499,16 +3496,16 @@
         <v>8</v>
       </c>
       <c r="L47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3546,16 +3543,16 @@
         <v>8</v>
       </c>
       <c r="L48" t="s">
+        <v>188</v>
+      </c>
+      <c r="M48" t="s">
+        <v>184</v>
+      </c>
+      <c r="N48" t="s">
+        <v>186</v>
+      </c>
+      <c r="O48" t="s">
         <v>189</v>
-      </c>
-      <c r="M48" t="s">
-        <v>185</v>
-      </c>
-      <c r="N48" t="s">
-        <v>187</v>
-      </c>
-      <c r="O48" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3593,16 +3590,16 @@
         <v>15</v>
       </c>
       <c r="L49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3640,16 +3637,16 @@
         <v>15</v>
       </c>
       <c r="L50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M50" t="s">
+        <v>188</v>
+      </c>
+      <c r="N50" t="s">
+        <v>186</v>
+      </c>
+      <c r="O50" t="s">
         <v>189</v>
-      </c>
-      <c r="N50" t="s">
-        <v>187</v>
-      </c>
-      <c r="O50" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3687,16 +3684,16 @@
         <v>8</v>
       </c>
       <c r="L51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3734,16 +3731,16 @@
         <v>8</v>
       </c>
       <c r="L52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -3781,16 +3778,16 @@
         <v>8</v>
       </c>
       <c r="L53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M53" t="s">
+        <v>184</v>
+      </c>
+      <c r="N53" t="s">
         <v>185</v>
       </c>
-      <c r="N53" t="s">
-        <v>186</v>
-      </c>
       <c r="O53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3828,16 +3825,16 @@
         <v>15</v>
       </c>
       <c r="L54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3875,16 +3872,16 @@
         <v>15</v>
       </c>
       <c r="L55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -3922,16 +3919,16 @@
         <v>15</v>
       </c>
       <c r="L56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -3969,16 +3966,16 @@
         <v>15</v>
       </c>
       <c r="L57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -4016,16 +4013,16 @@
         <v>8</v>
       </c>
       <c r="L58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -4063,16 +4060,16 @@
         <v>8</v>
       </c>
       <c r="L59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -4110,16 +4107,16 @@
         <v>8</v>
       </c>
       <c r="L60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -4157,16 +4154,16 @@
         <v>8</v>
       </c>
       <c r="L61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -4204,16 +4201,16 @@
         <v>15</v>
       </c>
       <c r="L62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N62" t="s">
+        <v>188</v>
+      </c>
+      <c r="O62" t="s">
         <v>189</v>
-      </c>
-      <c r="O62" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -4251,16 +4248,16 @@
         <v>15</v>
       </c>
       <c r="L63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -4298,16 +4295,16 @@
         <v>8</v>
       </c>
       <c r="L64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -4345,16 +4342,16 @@
         <v>15</v>
       </c>
       <c r="L65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -4392,16 +4389,16 @@
         <v>15</v>
       </c>
       <c r="L66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -4439,16 +4436,16 @@
         <v>15</v>
       </c>
       <c r="L67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -4486,16 +4483,16 @@
         <v>8</v>
       </c>
       <c r="L68" t="s">
+        <v>184</v>
+      </c>
+      <c r="M68" t="s">
         <v>185</v>
       </c>
-      <c r="M68" t="s">
-        <v>186</v>
-      </c>
       <c r="N68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -4533,16 +4530,16 @@
         <v>8</v>
       </c>
       <c r="L69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -4580,16 +4577,16 @@
         <v>8</v>
       </c>
       <c r="L70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M70" t="s">
+        <v>188</v>
+      </c>
+      <c r="N70" t="s">
+        <v>185</v>
+      </c>
+      <c r="O70" t="s">
         <v>189</v>
-      </c>
-      <c r="N70" t="s">
-        <v>186</v>
-      </c>
-      <c r="O70" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -4627,16 +4624,16 @@
         <v>8</v>
       </c>
       <c r="L71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -4674,16 +4671,16 @@
         <v>15</v>
       </c>
       <c r="L72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -4721,16 +4718,16 @@
         <v>15</v>
       </c>
       <c r="L73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -4768,16 +4765,16 @@
         <v>8</v>
       </c>
       <c r="L74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -4815,16 +4812,16 @@
         <v>8</v>
       </c>
       <c r="L75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -4862,16 +4859,16 @@
         <v>8</v>
       </c>
       <c r="L76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -4909,16 +4906,16 @@
         <v>8</v>
       </c>
       <c r="L77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -4956,16 +4953,16 @@
         <v>15</v>
       </c>
       <c r="L78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -5003,16 +5000,16 @@
         <v>15</v>
       </c>
       <c r="L79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -5050,16 +5047,16 @@
         <v>15</v>
       </c>
       <c r="L80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -5097,16 +5094,16 @@
         <v>8</v>
       </c>
       <c r="L81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -5144,16 +5141,16 @@
         <v>15</v>
       </c>
       <c r="L82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
@@ -5191,16 +5188,16 @@
         <v>15</v>
       </c>
       <c r="L83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M83" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -5238,16 +5235,16 @@
         <v>15</v>
       </c>
       <c r="L84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -5285,16 +5282,16 @@
         <v>8</v>
       </c>
       <c r="L85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -5332,16 +5329,16 @@
         <v>15</v>
       </c>
       <c r="L86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O86" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -5379,16 +5376,16 @@
         <v>8</v>
       </c>
       <c r="L87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -5426,16 +5423,16 @@
         <v>8</v>
       </c>
       <c r="L88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M88" t="s">
+        <v>188</v>
+      </c>
+      <c r="N88" t="s">
+        <v>187</v>
+      </c>
+      <c r="O88" t="s">
         <v>189</v>
-      </c>
-      <c r="N88" t="s">
-        <v>188</v>
-      </c>
-      <c r="O88" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -5473,16 +5470,16 @@
         <v>8</v>
       </c>
       <c r="L89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M89" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -5520,16 +5517,16 @@
         <v>15</v>
       </c>
       <c r="L90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -5567,16 +5564,16 @@
         <v>15</v>
       </c>
       <c r="L91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M91" t="s">
+        <v>188</v>
+      </c>
+      <c r="N91" t="s">
+        <v>186</v>
+      </c>
+      <c r="O91" t="s">
         <v>189</v>
-      </c>
-      <c r="N91" t="s">
-        <v>187</v>
-      </c>
-      <c r="O91" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -5614,16 +5611,16 @@
         <v>15</v>
       </c>
       <c r="L92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -5661,16 +5658,16 @@
         <v>8</v>
       </c>
       <c r="L93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O93" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -5708,16 +5705,16 @@
         <v>8</v>
       </c>
       <c r="L94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -5755,16 +5752,16 @@
         <v>8</v>
       </c>
       <c r="L95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -5802,16 +5799,16 @@
         <v>8</v>
       </c>
       <c r="L96" t="s">
+        <v>188</v>
+      </c>
+      <c r="M96" t="s">
+        <v>186</v>
+      </c>
+      <c r="N96" t="s">
+        <v>187</v>
+      </c>
+      <c r="O96" t="s">
         <v>189</v>
-      </c>
-      <c r="M96" t="s">
-        <v>187</v>
-      </c>
-      <c r="N96" t="s">
-        <v>188</v>
-      </c>
-      <c r="O96" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -5849,16 +5846,16 @@
         <v>8</v>
       </c>
       <c r="L97" t="s">
+        <v>184</v>
+      </c>
+      <c r="M97" t="s">
+        <v>187</v>
+      </c>
+      <c r="N97" t="s">
         <v>185</v>
       </c>
-      <c r="M97" t="s">
-        <v>188</v>
-      </c>
-      <c r="N97" t="s">
-        <v>186</v>
-      </c>
       <c r="O97" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -5896,16 +5893,16 @@
         <v>8</v>
       </c>
       <c r="L98" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -5943,16 +5940,16 @@
         <v>15</v>
       </c>
       <c r="L99" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N99" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -5990,16 +5987,16 @@
         <v>15</v>
       </c>
       <c r="L100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N100" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O100" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -6037,16 +6034,16 @@
         <v>8</v>
       </c>
       <c r="L101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O101" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -6084,16 +6081,16 @@
         <v>8</v>
       </c>
       <c r="L102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M102" t="s">
+        <v>188</v>
+      </c>
+      <c r="N102" t="s">
+        <v>187</v>
+      </c>
+      <c r="O102" t="s">
         <v>189</v>
-      </c>
-      <c r="N102" t="s">
-        <v>188</v>
-      </c>
-      <c r="O102" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -6131,16 +6128,16 @@
         <v>8</v>
       </c>
       <c r="L103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M103" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -6178,16 +6175,16 @@
         <v>15</v>
       </c>
       <c r="L104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -6225,16 +6222,16 @@
         <v>8</v>
       </c>
       <c r="L105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N105" t="s">
+        <v>188</v>
+      </c>
+      <c r="O105" t="s">
         <v>189</v>
-      </c>
-      <c r="O105" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -6272,16 +6269,16 @@
         <v>8</v>
       </c>
       <c r="L106" t="s">
+        <v>184</v>
+      </c>
+      <c r="M106" t="s">
         <v>185</v>
       </c>
-      <c r="M106" t="s">
-        <v>186</v>
-      </c>
       <c r="N106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -6319,16 +6316,16 @@
         <v>15</v>
       </c>
       <c r="L107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M107" t="s">
+        <v>188</v>
+      </c>
+      <c r="N107" t="s">
+        <v>187</v>
+      </c>
+      <c r="O107" t="s">
         <v>189</v>
-      </c>
-      <c r="N107" t="s">
-        <v>188</v>
-      </c>
-      <c r="O107" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -6366,16 +6363,16 @@
         <v>15</v>
       </c>
       <c r="L108" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -6413,16 +6410,16 @@
         <v>8</v>
       </c>
       <c r="L109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M109" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N109" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -6460,16 +6457,16 @@
         <v>15</v>
       </c>
       <c r="L110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N110" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O110" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -6507,16 +6504,16 @@
         <v>15</v>
       </c>
       <c r="L111" t="s">
+        <v>188</v>
+      </c>
+      <c r="M111" t="s">
+        <v>187</v>
+      </c>
+      <c r="N111" t="s">
+        <v>186</v>
+      </c>
+      <c r="O111" t="s">
         <v>189</v>
-      </c>
-      <c r="M111" t="s">
-        <v>188</v>
-      </c>
-      <c r="N111" t="s">
-        <v>187</v>
-      </c>
-      <c r="O111" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -6554,16 +6551,16 @@
         <v>8</v>
       </c>
       <c r="L112" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M112" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -6601,16 +6598,16 @@
         <v>8</v>
       </c>
       <c r="L113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O113" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -6648,16 +6645,16 @@
         <v>15</v>
       </c>
       <c r="L114" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O114" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -6695,16 +6692,16 @@
         <v>15</v>
       </c>
       <c r="L115" t="s">
+        <v>188</v>
+      </c>
+      <c r="M115" t="s">
+        <v>186</v>
+      </c>
+      <c r="N115" t="s">
+        <v>187</v>
+      </c>
+      <c r="O115" t="s">
         <v>189</v>
-      </c>
-      <c r="M115" t="s">
-        <v>187</v>
-      </c>
-      <c r="N115" t="s">
-        <v>188</v>
-      </c>
-      <c r="O115" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -6742,16 +6739,16 @@
         <v>8</v>
       </c>
       <c r="L116" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N116" t="s">
+        <v>188</v>
+      </c>
+      <c r="O116" t="s">
         <v>189</v>
-      </c>
-      <c r="O116" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -6789,16 +6786,16 @@
         <v>15</v>
       </c>
       <c r="L117" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M117" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N117" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -6836,16 +6833,16 @@
         <v>15</v>
       </c>
       <c r="L118" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M118" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -6883,16 +6880,16 @@
         <v>8</v>
       </c>
       <c r="L119" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M119" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O119" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -6930,16 +6927,16 @@
         <v>15</v>
       </c>
       <c r="L120" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N120" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -6977,16 +6974,16 @@
         <v>8</v>
       </c>
       <c r="L121" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M121" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -7024,16 +7021,16 @@
         <v>8</v>
       </c>
       <c r="L122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M122" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
@@ -7071,16 +7068,16 @@
         <v>15</v>
       </c>
       <c r="L123" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N123" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O123" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -7118,16 +7115,16 @@
         <v>8</v>
       </c>
       <c r="L124" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N124" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O124" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -7165,16 +7162,16 @@
         <v>8</v>
       </c>
       <c r="L125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N125" t="s">
+        <v>188</v>
+      </c>
+      <c r="O125" t="s">
         <v>189</v>
-      </c>
-      <c r="O125" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -7212,16 +7209,16 @@
         <v>15</v>
       </c>
       <c r="L126" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M126" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O126" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -7259,16 +7256,16 @@
         <v>15</v>
       </c>
       <c r="L127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M127" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N127" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -7306,16 +7303,16 @@
         <v>8</v>
       </c>
       <c r="L128" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M128" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N128" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O128" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
@@ -7353,16 +7350,16 @@
         <v>15</v>
       </c>
       <c r="L129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N129" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O129" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
@@ -7400,16 +7397,16 @@
         <v>15</v>
       </c>
       <c r="L130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N130" t="s">
+        <v>188</v>
+      </c>
+      <c r="O130" t="s">
         <v>189</v>
-      </c>
-      <c r="O130" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
@@ -7447,16 +7444,16 @@
         <v>15</v>
       </c>
       <c r="L131" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N131" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O131" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
